--- a/results_analysis/spark_motorFailure_02_hold2_surprise1.xlsx
+++ b/results_analysis/spark_motorFailure_02_hold2_surprise1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A61F89-A911-44DE-8B6F-DF92A68C718C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74D4F1C-2C20-40D0-A952-0329E1C233C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_best" sheetId="11" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="K_mean" sheetId="10" r:id="rId7"/>
     <sheet name="hp_best" sheetId="12" r:id="rId8"/>
     <sheet name="v1_v2_best" sheetId="13" r:id="rId9"/>
+    <sheet name="comp" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="33">
   <si>
     <t>Sparsiciation Method</t>
   </si>
@@ -120,6 +121,18 @@
   </si>
   <si>
     <t>v2</t>
+  </si>
+  <si>
+    <t>Motor Failure DataSet 02 - Accuracy (best)</t>
+  </si>
+  <si>
+    <t>Motor Failure DataSet 02 - Accuracy (median)</t>
+  </si>
+  <si>
+    <t>Motor Failure DataSet 02 - Nprot (best)</t>
+  </si>
+  <si>
+    <t>Motor Failure DataSet 02 - Nprot (mean)</t>
   </si>
 </sst>
 </file>
@@ -526,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -627,16 +640,10 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -769,6 +776,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1053,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4279F1E-80F5-41C1-B97A-BFBE1F0D2B01}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,19 +1103,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="A1" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1153,7 +1184,7 @@
       <c r="J5" s="12">
         <v>0.67763157894736903</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="41">
         <v>0.94078947368421095</v>
       </c>
     </row>
@@ -1282,7 +1313,7 @@
       <c r="J9" s="23">
         <v>0.93421052631579005</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="40">
         <v>0.94736842105263197</v>
       </c>
     </row>
@@ -1411,7 +1442,7 @@
       <c r="J13" s="23">
         <v>0.88815789473684204</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="40">
         <v>0.91447368421052599</v>
       </c>
     </row>
@@ -1429,7 +1460,7 @@
       <c r="F14" s="15">
         <v>0.92105263157894701</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="38">
         <v>1</v>
       </c>
       <c r="H14" s="15">
@@ -1519,28 +1550,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="25"/>
+      <c r="D17" s="29">
+        <v>0.74342105263157898</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0.90789473684210498</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0.88157894736842102</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0.95394736842105299</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0.95394736842105299</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0.96710526315789502</v>
+      </c>
+      <c r="J17" s="23">
+        <v>0.72368421052631604</v>
+      </c>
+      <c r="K17" s="40">
+        <v>0.96052631578947401</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="17"/>
+      <c r="D18" s="14">
+        <v>0.72368421052631604</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.86842105263157898</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.94736842105263197</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0.98026315789473695</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0.98026315789473695</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0.73684210526315796</v>
+      </c>
+      <c r="K18" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1550,14 +1613,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="17"/>
+      <c r="D19" s="14">
+        <v>0.82236842105263197</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.88157894736842102</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.86184210526315796</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.92763157894736903</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.90789473684210498</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.96710526315789502</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.85526315789473695</v>
+      </c>
+      <c r="K19" s="26">
+        <v>0.90131578947368396</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -1565,14 +1644,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="21"/>
+      <c r="D20" s="18">
+        <v>0.76973684210526305</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.83552631578947401</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0.98026315789473695</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="J20" s="19">
+        <v>0.73684210526315796</v>
+      </c>
+      <c r="K20" s="27">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="28"/>
@@ -1913,12 +2008,1139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF72302E-4C09-4243-9632-19671FF49BA6}">
+  <dimension ref="A1:W40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12:W15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="M1" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E4" s="23">
+        <v>-0.02</v>
+      </c>
+      <c r="F4" s="23">
+        <v>-6.0000000000000097E-3</v>
+      </c>
+      <c r="G4" s="23">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>6.0000000000000097E-3</v>
+      </c>
+      <c r="J4" s="23">
+        <v>-6.0000000000000097E-3</v>
+      </c>
+      <c r="K4" s="40">
+        <v>3.2999999999999897E-2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="80">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="60">
+        <v>-8</v>
+      </c>
+      <c r="R4" s="60">
+        <v>58</v>
+      </c>
+      <c r="S4" s="60">
+        <v>-30</v>
+      </c>
+      <c r="T4" s="60">
+        <v>-44</v>
+      </c>
+      <c r="U4" s="60">
+        <v>-11</v>
+      </c>
+      <c r="V4" s="60">
+        <v>-38</v>
+      </c>
+      <c r="W4" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="14">
+        <v>7.0000000000000097E-3</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G5" s="15">
+        <v>-5.3000000000000103E-2</v>
+      </c>
+      <c r="H5" s="15">
+        <v>-7.0000000000000097E-3</v>
+      </c>
+      <c r="I5" s="15">
+        <v>4.5999999999999902E-2</v>
+      </c>
+      <c r="J5" s="15">
+        <v>-0.02</v>
+      </c>
+      <c r="K5" s="26">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="63">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="51">
+        <v>171</v>
+      </c>
+      <c r="R5" s="51">
+        <v>43</v>
+      </c>
+      <c r="S5" s="51">
+        <v>137</v>
+      </c>
+      <c r="T5" s="51">
+        <v>74</v>
+      </c>
+      <c r="U5" s="51">
+        <v>61</v>
+      </c>
+      <c r="V5" s="51">
+        <v>20</v>
+      </c>
+      <c r="W5" s="67">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>4.5999999999999902E-2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="F6" s="15">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="G6" s="15">
+        <v>-1.2999999999999901E-2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>-5.2999999999999901E-2</v>
+      </c>
+      <c r="I6" s="15">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="K6" s="26">
+        <v>-4.5999999999999902E-2</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="63">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="51">
+        <v>-41</v>
+      </c>
+      <c r="R6" s="51">
+        <v>19</v>
+      </c>
+      <c r="S6" s="51">
+        <v>-11</v>
+      </c>
+      <c r="T6" s="51">
+        <v>-15</v>
+      </c>
+      <c r="U6" s="51">
+        <v>11</v>
+      </c>
+      <c r="V6" s="51">
+        <v>115</v>
+      </c>
+      <c r="W6" s="67">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>-7.0000000000000097E-3</v>
+      </c>
+      <c r="F7" s="19">
+        <v>-6.5000000000000099E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>4.5999999999999902E-2</v>
+      </c>
+      <c r="H7" s="19">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="I7" s="19">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J7" s="19">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="K7" s="27">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="64">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="71">
+        <v>17</v>
+      </c>
+      <c r="R7" s="71">
+        <v>-28</v>
+      </c>
+      <c r="S7" s="71">
+        <v>145</v>
+      </c>
+      <c r="T7" s="71">
+        <v>114</v>
+      </c>
+      <c r="U7" s="71">
+        <v>45</v>
+      </c>
+      <c r="V7" s="71">
+        <v>-9</v>
+      </c>
+      <c r="W7" s="81">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="M9" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29">
+        <v>-8.0000000000000106E-3</v>
+      </c>
+      <c r="E12" s="23">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="F12" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G12" s="23">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H12" s="23">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I12" s="23">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J12" s="23">
+        <v>-8.0000000000000106E-3</v>
+      </c>
+      <c r="K12" s="40">
+        <v>0.184</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="82">
+        <v>2.7</v>
+      </c>
+      <c r="Q12" s="59">
+        <v>-25.6</v>
+      </c>
+      <c r="R12" s="59">
+        <v>14.1</v>
+      </c>
+      <c r="S12" s="59">
+        <v>-45.4</v>
+      </c>
+      <c r="T12" s="59">
+        <v>6.8000000000000096</v>
+      </c>
+      <c r="U12" s="59">
+        <v>11.4</v>
+      </c>
+      <c r="V12" s="59">
+        <v>7</v>
+      </c>
+      <c r="W12" s="83">
+        <v>122.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E13" s="15">
+        <v>7.0000000000000097E-3</v>
+      </c>
+      <c r="F13" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>6.0000000000000097E-3</v>
+      </c>
+      <c r="I13" s="15">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J13" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K13" s="26">
+        <v>4.6999999999999903E-2</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="84">
+        <v>1.8</v>
+      </c>
+      <c r="Q13" s="36">
+        <v>82.8</v>
+      </c>
+      <c r="R13" s="36">
+        <v>-0.89999999999999902</v>
+      </c>
+      <c r="S13" s="36">
+        <v>47.5</v>
+      </c>
+      <c r="T13" s="36">
+        <v>71.3</v>
+      </c>
+      <c r="U13" s="36">
+        <v>63.8</v>
+      </c>
+      <c r="V13" s="36">
+        <v>16.8</v>
+      </c>
+      <c r="W13" s="85">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E14" s="15">
+        <v>-0.01</v>
+      </c>
+      <c r="F14" s="15">
+        <v>-9.0000000000000097E-3</v>
+      </c>
+      <c r="G14" s="15">
+        <v>-0.111</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="I14" s="15">
+        <v>4.2999999999999899E-2</v>
+      </c>
+      <c r="J14" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K14" s="26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="84">
+        <v>10.5</v>
+      </c>
+      <c r="Q14" s="36">
+        <v>-27.1</v>
+      </c>
+      <c r="R14" s="36">
+        <v>3.9</v>
+      </c>
+      <c r="S14" s="36">
+        <v>-118</v>
+      </c>
+      <c r="T14" s="36">
+        <v>4.4000000000000101</v>
+      </c>
+      <c r="U14" s="36">
+        <v>1.7</v>
+      </c>
+      <c r="V14" s="36">
+        <v>20.7</v>
+      </c>
+      <c r="W14" s="85">
+        <v>-42.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E15" s="19">
+        <v>-5.80000000000001E-2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="G15" s="19">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="H15" s="19">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="I15" s="19">
+        <v>2.4999999999999901E-2</v>
+      </c>
+      <c r="J15" s="19">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="K15" s="27">
+        <v>4.1999999999999899E-2</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="86">
+        <v>4.2</v>
+      </c>
+      <c r="Q15" s="70">
+        <v>1.1000000000000201</v>
+      </c>
+      <c r="R15" s="70">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="S15" s="70">
+        <v>42.9</v>
+      </c>
+      <c r="T15" s="70">
+        <v>32.5</v>
+      </c>
+      <c r="U15" s="70">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="V15" s="70">
+        <v>12</v>
+      </c>
+      <c r="W15" s="87">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="29">
+        <v>0</v>
+      </c>
+      <c r="E20" s="23">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="F20" s="23">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G20" s="23">
+        <v>-1.2999999999999901E-2</v>
+      </c>
+      <c r="H20" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="I20" s="23">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J20" s="23">
+        <v>-9.0000000000000097E-3</v>
+      </c>
+      <c r="K20" s="40">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="14">
+        <v>6.9999999999999004E-3</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F21" s="15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G21" s="15">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I21" s="15">
+        <v>5.5999999999999897E-2</v>
+      </c>
+      <c r="J21" s="15">
+        <v>6.0000000000000097E-3</v>
+      </c>
+      <c r="K21" s="26">
+        <v>3.6999999999999901E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14">
+        <v>6.0000000000000097E-3</v>
+      </c>
+      <c r="E22" s="15">
+        <v>-0.03</v>
+      </c>
+      <c r="F22" s="15">
+        <v>-0.01</v>
+      </c>
+      <c r="G22" s="15">
+        <v>-0.154</v>
+      </c>
+      <c r="H22" s="15">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="J22" s="15">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K22" s="26">
+        <v>-1.2999999999999901E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="18">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="F23" s="19">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="G23" s="19">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="H23" s="19">
+        <v>-3.59999999999999E-2</v>
+      </c>
+      <c r="I23" s="19">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J23" s="19">
+        <v>-0.02</v>
+      </c>
+      <c r="K23" s="27">
+        <v>5.89999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="M9:W9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D17" sqref="D17:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,19 +3158,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2293,7 +3515,7 @@
       <c r="F14" s="15">
         <v>0.82236842105263197</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="38">
         <v>0.94605263157894803</v>
       </c>
       <c r="H14" s="16">
@@ -2383,28 +3605,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="25"/>
+      <c r="D17" s="29">
+        <v>0.678289473684211</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0.77565789473684199</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0.79342105263157903</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0.93355263157894697</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0.92236842105263195</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0.85394736842105301</v>
+      </c>
+      <c r="J17" s="23">
+        <v>0.67171052631578898</v>
+      </c>
+      <c r="K17" s="40">
+        <v>0.92500000000000004</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="32"/>
+      <c r="D18" s="14">
+        <v>0.68157894736842095</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.90855263157894695</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.92171052631578998</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0.951315789473684</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0.90394736842105305</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0.67039473684210504</v>
+      </c>
+      <c r="K18" s="26">
+        <v>0.96710526315789502</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -2414,14 +3668,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="17"/>
+      <c r="D19" s="14">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.763815789473684</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.77171052631578996</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.78684210526315801</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.80394736842105297</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.83618421052631597</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.72105263157894695</v>
+      </c>
+      <c r="K19" s="26">
+        <v>0.81118421052631595</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -2429,14 +3699,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="21"/>
+      <c r="D20" s="18">
+        <v>0.705921052631579</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.86513157894736803</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.73026315789473695</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0.86513157894736803</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0.86776315789473701</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0.83355263157894699</v>
+      </c>
+      <c r="J20" s="19">
+        <v>0.65526315789473699</v>
+      </c>
+      <c r="K20" s="27">
+        <v>0.93881578947368405</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="28"/>
@@ -2782,7 +4068,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D17" sqref="D17:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2800,19 +4086,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3157,7 +4443,7 @@
       <c r="F14" s="15">
         <v>0.83552631578947401</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="38">
         <v>0.95394736842105299</v>
       </c>
       <c r="H14" s="15">
@@ -3247,28 +4533,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
+      <c r="D17" s="15">
+        <v>0.69078947368421095</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.75328947368421095</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.79605263157894701</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0.93092105263157898</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0.92763157894736803</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0.6875</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0.92763157894736803</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
+      <c r="D18" s="15">
+        <v>0.69078947368421095</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.92763157894736803</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.75657894736842102</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.93092105263157898</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0.95723684210526305</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0.94407894736842102</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0.66447368421052599</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.96052631578947401</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -3278,14 +4596,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="15">
+        <v>0.72039473684210498</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.73026315789473695</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.78947368421052599</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.76973684210526305</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.81907894736842102</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.83223684210526305</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.72368421052631604</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.80592105263157898</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -3293,14 +4627,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="D20" s="15">
+        <v>0.71052631578947401</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.92763157894736803</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.74013157894736803</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.88486842105263197</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0.91776315789473695</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0.84868421052631604</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0.66118421052631604</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0.98026315789473695</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -3488,7 +4838,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D17" sqref="D17:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3506,19 +4856,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3566,28 +4916,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="36">
         <v>31</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="36">
         <v>218</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="36">
         <v>133</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="37">
         <v>239</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="37">
         <v>241</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="37">
         <v>195</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="36">
         <v>9</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="36">
         <v>267</v>
       </c>
     </row>
@@ -3596,28 +4946,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>16</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="36">
         <v>274</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="36">
         <v>103</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="37">
         <v>221</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="37">
         <v>216</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="37">
         <v>269</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="36">
         <v>12</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="37">
         <v>217</v>
       </c>
     </row>
@@ -3629,28 +4979,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <v>42</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="36">
         <v>216</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="36">
         <v>154</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="37">
         <v>217</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="37">
         <v>217</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="37">
         <v>281</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="36">
         <v>32</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="36">
         <v>216</v>
       </c>
     </row>
@@ -3660,28 +5010,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>30</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>281</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="36">
         <v>29</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="37">
         <v>218</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="36">
         <v>218</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="37">
         <v>281</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="36">
         <v>29</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="37">
         <v>216</v>
       </c>
     </row>
@@ -3695,28 +5045,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>185</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="36">
         <v>164</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="36">
         <v>188</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="37">
         <v>216</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="37">
         <v>217</v>
       </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
+      <c r="I9" s="36">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36">
         <v>184</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="37">
         <v>215</v>
       </c>
     </row>
@@ -3725,28 +5075,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>183</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>216</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="36">
         <v>152</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="37">
         <v>217</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="37">
         <v>216</v>
       </c>
-      <c r="I10" s="38">
-        <v>1</v>
-      </c>
-      <c r="J10" s="38">
+      <c r="I10" s="36">
+        <v>1</v>
+      </c>
+      <c r="J10" s="36">
         <v>158</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="37">
         <v>216</v>
       </c>
     </row>
@@ -3758,28 +5108,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="37">
         <v>54</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="36">
         <v>217</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="36">
         <v>156</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="37">
         <v>201</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="37">
         <v>215</v>
       </c>
-      <c r="I11" s="38">
-        <v>2</v>
-      </c>
-      <c r="J11" s="38">
+      <c r="I11" s="36">
+        <v>2</v>
+      </c>
+      <c r="J11" s="36">
         <v>157</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="37">
         <v>217</v>
       </c>
     </row>
@@ -3789,28 +5139,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>180</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="36">
         <v>217</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="36">
         <v>177</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="37">
         <v>217</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="37">
         <v>218</v>
       </c>
-      <c r="I12" s="38">
-        <v>2</v>
-      </c>
-      <c r="J12" s="38">
+      <c r="I12" s="36">
+        <v>2</v>
+      </c>
+      <c r="J12" s="36">
         <v>178</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="37">
         <v>217</v>
       </c>
     </row>
@@ -3824,28 +5174,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="37">
         <v>77</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="36">
         <v>80</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="36">
         <v>71</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="37">
         <v>79</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="36">
         <v>75</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="37">
         <v>69</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="36">
         <v>66</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="37">
         <v>72</v>
       </c>
     </row>
@@ -3854,28 +5204,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>66</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="36">
         <v>45</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="36">
         <v>87</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="39">
         <v>47</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="36">
         <v>78</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="37">
         <v>66</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="36">
         <v>65</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="37">
         <v>45</v>
       </c>
     </row>
@@ -3887,28 +5237,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="38">
-        <v>2</v>
-      </c>
-      <c r="E15" s="38">
-        <v>2</v>
-      </c>
-      <c r="F15" s="38">
-        <v>2</v>
-      </c>
-      <c r="G15" s="38">
-        <v>2</v>
-      </c>
-      <c r="H15" s="38">
-        <v>2</v>
-      </c>
-      <c r="I15" s="38">
-        <v>2</v>
-      </c>
-      <c r="J15" s="38">
-        <v>2</v>
-      </c>
-      <c r="K15" s="38">
+      <c r="D15" s="36">
+        <v>2</v>
+      </c>
+      <c r="E15" s="36">
+        <v>2</v>
+      </c>
+      <c r="F15" s="36">
+        <v>2</v>
+      </c>
+      <c r="G15" s="36">
+        <v>2</v>
+      </c>
+      <c r="H15" s="36">
+        <v>2</v>
+      </c>
+      <c r="I15" s="36">
+        <v>2</v>
+      </c>
+      <c r="J15" s="36">
+        <v>2</v>
+      </c>
+      <c r="K15" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3918,28 +5268,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="38">
-        <v>2</v>
-      </c>
-      <c r="E16" s="38">
-        <v>2</v>
-      </c>
-      <c r="F16" s="38">
+      <c r="D16" s="36">
+        <v>2</v>
+      </c>
+      <c r="E16" s="36">
+        <v>2</v>
+      </c>
+      <c r="F16" s="36">
         <v>12</v>
       </c>
-      <c r="G16" s="38">
-        <v>2</v>
-      </c>
-      <c r="H16" s="38">
-        <v>2</v>
-      </c>
-      <c r="I16" s="38">
-        <v>2</v>
-      </c>
-      <c r="J16" s="38">
-        <v>2</v>
-      </c>
-      <c r="K16" s="38">
+      <c r="G16" s="36">
+        <v>2</v>
+      </c>
+      <c r="H16" s="36">
+        <v>2</v>
+      </c>
+      <c r="I16" s="36">
+        <v>2</v>
+      </c>
+      <c r="J16" s="36">
+        <v>2</v>
+      </c>
+      <c r="K16" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3953,28 +5303,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
+      <c r="D17" s="36">
+        <v>11</v>
+      </c>
+      <c r="E17" s="36">
+        <v>210</v>
+      </c>
+      <c r="F17" s="36">
+        <v>186</v>
+      </c>
+      <c r="G17" s="36">
+        <v>189</v>
+      </c>
+      <c r="H17" s="36">
+        <v>179</v>
+      </c>
+      <c r="I17" s="36">
+        <v>213</v>
+      </c>
+      <c r="J17" s="36">
+        <v>18</v>
+      </c>
+      <c r="K17" s="36">
+        <v>223</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
+      <c r="D18" s="36">
+        <v>17</v>
+      </c>
+      <c r="E18" s="36">
+        <v>221</v>
+      </c>
+      <c r="F18" s="36">
+        <v>100</v>
+      </c>
+      <c r="G18" s="36">
+        <v>182</v>
+      </c>
+      <c r="H18" s="36">
+        <v>217</v>
+      </c>
+      <c r="I18" s="36">
+        <v>220</v>
+      </c>
+      <c r="J18" s="36">
+        <v>32</v>
+      </c>
+      <c r="K18" s="36">
+        <v>267</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -3984,14 +5366,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="D19" s="36">
+        <v>99</v>
+      </c>
+      <c r="E19" s="36">
+        <v>177</v>
+      </c>
+      <c r="F19" s="36">
+        <v>132</v>
+      </c>
+      <c r="G19" s="36">
+        <v>209</v>
+      </c>
+      <c r="H19" s="36">
+        <v>196</v>
+      </c>
+      <c r="I19" s="36">
+        <v>224</v>
+      </c>
+      <c r="J19" s="36">
+        <v>135</v>
+      </c>
+      <c r="K19" s="36">
+        <v>184</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -3999,14 +5397,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
+      <c r="D20" s="36">
+        <v>63</v>
+      </c>
+      <c r="E20" s="36">
+        <v>239</v>
+      </c>
+      <c r="F20" s="36">
+        <v>111</v>
+      </c>
+      <c r="G20" s="36">
+        <v>224</v>
+      </c>
+      <c r="H20" s="36">
+        <v>229</v>
+      </c>
+      <c r="I20" s="36">
+        <v>221</v>
+      </c>
+      <c r="J20" s="36">
+        <v>3</v>
+      </c>
+      <c r="K20" s="36">
+        <v>229</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -4194,7 +5608,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D17" sqref="D17:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4212,19 +5626,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4272,28 +5686,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="36">
         <v>17.100000000000001</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="36">
         <v>100.1</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="36">
         <v>46.8</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="37">
         <v>151.4</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="37">
         <v>178.6</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="37">
         <v>176.3</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="36">
         <v>7.5</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="36">
         <v>95.6</v>
       </c>
     </row>
@@ -4302,28 +5716,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>16.7</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="36">
         <v>156.80000000000001</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="36">
         <v>33.1</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="37">
         <v>152.1</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="37">
         <v>164.9</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="37">
         <v>173.8</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="36">
         <v>7.6</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="37">
         <v>158.1</v>
       </c>
     </row>
@@ -4335,28 +5749,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <v>22.3</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="36">
         <v>85.7</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="36">
         <v>68.7</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="37">
         <v>156.5</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="37">
         <v>158.80000000000001</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="37">
         <v>202.7</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="36">
         <v>12.4</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="36">
         <v>135.5</v>
       </c>
     </row>
@@ -4366,28 +5780,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>20.399999999999999</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>132.5</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="36">
         <v>47.4</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="37">
         <v>204.5</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="36">
         <v>136.4</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="37">
         <v>168.1</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="36">
         <v>15.6</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="37">
         <v>165.8</v>
       </c>
     </row>
@@ -4401,28 +5815,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>73.2</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="36">
         <v>46.8</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="36">
         <v>124.9</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="37">
         <v>160.4</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="37">
         <v>195.5</v>
       </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
+      <c r="I9" s="36">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36">
         <v>73.2</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="37">
         <v>195.6</v>
       </c>
     </row>
@@ -4431,28 +5845,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>76.3</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>129.5</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="36">
         <v>51.6</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="37">
         <v>160.30000000000001</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="37">
         <v>215</v>
       </c>
-      <c r="I10" s="38">
-        <v>1</v>
-      </c>
-      <c r="J10" s="38">
+      <c r="I10" s="36">
+        <v>1</v>
+      </c>
+      <c r="J10" s="36">
         <v>67</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="37">
         <v>180.7</v>
       </c>
     </row>
@@ -4464,28 +5878,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="37">
         <v>60</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="36">
         <v>112</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="36">
         <v>64.7</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="37">
         <v>142.4</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="37">
         <v>178</v>
       </c>
-      <c r="I11" s="38">
-        <v>2</v>
-      </c>
-      <c r="J11" s="38">
+      <c r="I11" s="36">
+        <v>2</v>
+      </c>
+      <c r="J11" s="36">
         <v>40.6</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="37">
         <v>117.4</v>
       </c>
     </row>
@@ -4495,28 +5909,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>67.900000000000006</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="36">
         <v>134</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="36">
         <v>66.099999999999994</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="37">
         <v>149</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="37">
         <v>174.7</v>
       </c>
-      <c r="I12" s="38">
-        <v>2</v>
-      </c>
-      <c r="J12" s="38">
+      <c r="I12" s="36">
+        <v>2</v>
+      </c>
+      <c r="J12" s="36">
         <v>62.2</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="37">
         <v>135.30000000000001</v>
       </c>
     </row>
@@ -4530,28 +5944,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="37">
         <v>70</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="36">
         <v>75.2</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="36">
         <v>52.8</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="37">
         <v>64.900000000000006</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="36">
         <v>57.8</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="37">
         <v>67.5</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="36">
         <v>48.6</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="37">
         <v>59.7</v>
       </c>
     </row>
@@ -4560,28 +5974,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>67.8</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="36">
         <v>49.8</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="36">
         <v>57.7</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="39">
         <v>58.9</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="36">
         <v>67.900000000000006</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="37">
         <v>67.400000000000006</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="36">
         <v>41.1</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="37">
         <v>55.7</v>
       </c>
     </row>
@@ -4593,28 +6007,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="38">
-        <v>2</v>
-      </c>
-      <c r="E15" s="38">
-        <v>2</v>
-      </c>
-      <c r="F15" s="38">
-        <v>2</v>
-      </c>
-      <c r="G15" s="38">
-        <v>2</v>
-      </c>
-      <c r="H15" s="38">
-        <v>2</v>
-      </c>
-      <c r="I15" s="38">
-        <v>2</v>
-      </c>
-      <c r="J15" s="38">
-        <v>2</v>
-      </c>
-      <c r="K15" s="38">
+      <c r="D15" s="36">
+        <v>2</v>
+      </c>
+      <c r="E15" s="36">
+        <v>2</v>
+      </c>
+      <c r="F15" s="36">
+        <v>2</v>
+      </c>
+      <c r="G15" s="36">
+        <v>2</v>
+      </c>
+      <c r="H15" s="36">
+        <v>2</v>
+      </c>
+      <c r="I15" s="36">
+        <v>2</v>
+      </c>
+      <c r="J15" s="36">
+        <v>2</v>
+      </c>
+      <c r="K15" s="36">
         <v>2</v>
       </c>
     </row>
@@ -4624,28 +6038,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="38">
-        <v>2</v>
-      </c>
-      <c r="E16" s="38">
-        <v>2</v>
-      </c>
-      <c r="F16" s="38">
+      <c r="D16" s="36">
+        <v>2</v>
+      </c>
+      <c r="E16" s="36">
+        <v>2</v>
+      </c>
+      <c r="F16" s="36">
         <v>8</v>
       </c>
-      <c r="G16" s="38">
-        <v>2</v>
-      </c>
-      <c r="H16" s="38">
-        <v>2</v>
-      </c>
-      <c r="I16" s="38">
-        <v>2</v>
-      </c>
-      <c r="J16" s="38">
-        <v>2</v>
-      </c>
-      <c r="K16" s="38">
+      <c r="G16" s="36">
+        <v>2</v>
+      </c>
+      <c r="H16" s="36">
+        <v>2</v>
+      </c>
+      <c r="I16" s="36">
+        <v>2</v>
+      </c>
+      <c r="J16" s="36">
+        <v>2</v>
+      </c>
+      <c r="K16" s="36">
         <v>2</v>
       </c>
     </row>
@@ -4659,28 +6073,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
+      <c r="D17" s="36">
+        <v>11.2</v>
+      </c>
+      <c r="E17" s="36">
+        <v>92.9</v>
+      </c>
+      <c r="F17" s="36">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="G17" s="36">
+        <v>164.6</v>
+      </c>
+      <c r="H17" s="36">
+        <v>190</v>
+      </c>
+      <c r="I17" s="36">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="J17" s="36">
+        <v>27.8</v>
+      </c>
+      <c r="K17" s="36">
+        <v>196.4</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
+      <c r="D18" s="36">
+        <v>13.9</v>
+      </c>
+      <c r="E18" s="36">
+        <v>188.8</v>
+      </c>
+      <c r="F18" s="36">
+        <v>54.2</v>
+      </c>
+      <c r="G18" s="36">
+        <v>162.9</v>
+      </c>
+      <c r="H18" s="36">
+        <v>186.3</v>
+      </c>
+      <c r="I18" s="36">
+        <v>175.9</v>
+      </c>
+      <c r="J18" s="36">
+        <v>27.1</v>
+      </c>
+      <c r="K18" s="36">
+        <v>223.7</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -4690,14 +6136,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="D19" s="36">
+        <v>28</v>
+      </c>
+      <c r="E19" s="36">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="F19" s="36">
+        <v>66.3</v>
+      </c>
+      <c r="G19" s="36">
+        <v>78.5</v>
+      </c>
+      <c r="H19" s="36">
+        <v>103.4</v>
+      </c>
+      <c r="I19" s="36">
+        <v>116.7</v>
+      </c>
+      <c r="J19" s="36">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="K19" s="36">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -4705,14 +6167,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
+      <c r="D20" s="36">
+        <v>21.6</v>
+      </c>
+      <c r="E20" s="36">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="F20" s="36">
+        <v>51.1</v>
+      </c>
+      <c r="G20" s="36">
+        <v>142.9</v>
+      </c>
+      <c r="H20" s="36">
+        <v>146.5</v>
+      </c>
+      <c r="I20" s="36">
+        <v>130.9</v>
+      </c>
+      <c r="J20" s="36">
+        <v>26</v>
+      </c>
+      <c r="K20" s="36">
+        <v>192.5</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -4918,19 +6396,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4978,28 +6456,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
-        <v>1</v>
-      </c>
-      <c r="E5" s="38">
-        <v>1</v>
-      </c>
-      <c r="F5" s="38">
-        <v>1</v>
-      </c>
-      <c r="G5" s="39">
-        <v>1</v>
-      </c>
-      <c r="H5" s="39">
-        <v>1</v>
-      </c>
-      <c r="I5" s="39">
-        <v>1</v>
-      </c>
-      <c r="J5" s="38">
-        <v>1</v>
-      </c>
-      <c r="K5" s="38">
+      <c r="D5" s="36">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36">
+        <v>1</v>
+      </c>
+      <c r="F5" s="36">
+        <v>1</v>
+      </c>
+      <c r="G5" s="37">
+        <v>1</v>
+      </c>
+      <c r="H5" s="37">
+        <v>1</v>
+      </c>
+      <c r="I5" s="37">
+        <v>1</v>
+      </c>
+      <c r="J5" s="36">
+        <v>1</v>
+      </c>
+      <c r="K5" s="36">
         <v>1</v>
       </c>
     </row>
@@ -5008,28 +6486,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="38">
-        <v>2</v>
-      </c>
-      <c r="E6" s="38">
+      <c r="D6" s="36">
+        <v>2</v>
+      </c>
+      <c r="E6" s="36">
         <v>5</v>
       </c>
-      <c r="F6" s="38">
-        <v>2</v>
-      </c>
-      <c r="G6" s="39">
+      <c r="F6" s="36">
+        <v>2</v>
+      </c>
+      <c r="G6" s="37">
         <v>7</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="37">
         <v>7</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="37">
         <v>5</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="36">
         <v>5</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="37">
         <v>5</v>
       </c>
     </row>
@@ -5041,28 +6519,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="38">
-        <v>1</v>
-      </c>
-      <c r="E7" s="38">
-        <v>1</v>
-      </c>
-      <c r="F7" s="38">
-        <v>1</v>
-      </c>
-      <c r="G7" s="39">
-        <v>1</v>
-      </c>
-      <c r="H7" s="39">
-        <v>1</v>
-      </c>
-      <c r="I7" s="39">
-        <v>1</v>
-      </c>
-      <c r="J7" s="38">
-        <v>1</v>
-      </c>
-      <c r="K7" s="38">
+      <c r="D7" s="36">
+        <v>1</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1</v>
+      </c>
+      <c r="F7" s="36">
+        <v>1</v>
+      </c>
+      <c r="G7" s="37">
+        <v>1</v>
+      </c>
+      <c r="H7" s="37">
+        <v>1</v>
+      </c>
+      <c r="I7" s="37">
+        <v>1</v>
+      </c>
+      <c r="J7" s="36">
+        <v>1</v>
+      </c>
+      <c r="K7" s="36">
         <v>1</v>
       </c>
     </row>
@@ -5072,28 +6550,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>3</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>3</v>
       </c>
-      <c r="F8" s="38">
-        <v>2</v>
-      </c>
-      <c r="G8" s="39">
+      <c r="F8" s="36">
+        <v>2</v>
+      </c>
+      <c r="G8" s="37">
         <v>7</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="36">
         <v>6</v>
       </c>
-      <c r="I8" s="39">
-        <v>2</v>
-      </c>
-      <c r="J8" s="38">
+      <c r="I8" s="37">
+        <v>2</v>
+      </c>
+      <c r="J8" s="36">
         <v>7</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="37">
         <v>7</v>
       </c>
     </row>
@@ -5107,28 +6585,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
-        <v>1</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1</v>
-      </c>
-      <c r="F9" s="38">
-        <v>1</v>
-      </c>
-      <c r="G9" s="39">
-        <v>1</v>
-      </c>
-      <c r="H9" s="39">
-        <v>1</v>
-      </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
-        <v>1</v>
-      </c>
-      <c r="K9" s="39">
+      <c r="D9" s="36">
+        <v>1</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1</v>
+      </c>
+      <c r="F9" s="36">
+        <v>1</v>
+      </c>
+      <c r="G9" s="37">
+        <v>1</v>
+      </c>
+      <c r="H9" s="37">
+        <v>1</v>
+      </c>
+      <c r="I9" s="36">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36">
+        <v>1</v>
+      </c>
+      <c r="K9" s="37">
         <v>1</v>
       </c>
     </row>
@@ -5137,28 +6615,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>3</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>3</v>
       </c>
-      <c r="F10" s="38">
-        <v>2</v>
-      </c>
-      <c r="G10" s="39">
+      <c r="F10" s="36">
+        <v>2</v>
+      </c>
+      <c r="G10" s="37">
         <v>5</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="37">
         <v>7</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="36">
         <v>5</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="36">
         <v>3</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="37">
         <v>2</v>
       </c>
     </row>
@@ -5170,28 +6648,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="39">
-        <v>1</v>
-      </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="38">
-        <v>1</v>
-      </c>
-      <c r="G11" s="39">
-        <v>1</v>
-      </c>
-      <c r="H11" s="39">
-        <v>1</v>
-      </c>
-      <c r="I11" s="38">
-        <v>1</v>
-      </c>
-      <c r="J11" s="38">
-        <v>1</v>
-      </c>
-      <c r="K11" s="39">
+      <c r="D11" s="37">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36">
+        <v>1</v>
+      </c>
+      <c r="F11" s="36">
+        <v>1</v>
+      </c>
+      <c r="G11" s="37">
+        <v>1</v>
+      </c>
+      <c r="H11" s="37">
+        <v>1</v>
+      </c>
+      <c r="I11" s="36">
+        <v>1</v>
+      </c>
+      <c r="J11" s="36">
+        <v>1</v>
+      </c>
+      <c r="K11" s="37">
         <v>1</v>
       </c>
     </row>
@@ -5201,28 +6679,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="38">
-        <v>2</v>
-      </c>
-      <c r="E12" s="38">
+      <c r="D12" s="36">
+        <v>2</v>
+      </c>
+      <c r="E12" s="36">
         <v>5</v>
       </c>
-      <c r="F12" s="38">
-        <v>2</v>
-      </c>
-      <c r="G12" s="39">
+      <c r="F12" s="36">
+        <v>2</v>
+      </c>
+      <c r="G12" s="37">
         <v>4</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="37">
         <v>7</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="36">
         <v>9</v>
       </c>
-      <c r="J12" s="38">
-        <v>2</v>
-      </c>
-      <c r="K12" s="39">
+      <c r="J12" s="36">
+        <v>2</v>
+      </c>
+      <c r="K12" s="37">
         <v>5</v>
       </c>
     </row>
@@ -5236,28 +6714,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="39">
-        <v>1</v>
-      </c>
-      <c r="E13" s="38">
-        <v>1</v>
-      </c>
-      <c r="F13" s="38">
-        <v>1</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1</v>
-      </c>
-      <c r="H13" s="38">
-        <v>1</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1</v>
-      </c>
-      <c r="J13" s="38">
-        <v>1</v>
-      </c>
-      <c r="K13" s="39">
+      <c r="D13" s="37">
+        <v>1</v>
+      </c>
+      <c r="E13" s="36">
+        <v>1</v>
+      </c>
+      <c r="F13" s="36">
+        <v>1</v>
+      </c>
+      <c r="G13" s="37">
+        <v>1</v>
+      </c>
+      <c r="H13" s="36">
+        <v>1</v>
+      </c>
+      <c r="I13" s="37">
+        <v>1</v>
+      </c>
+      <c r="J13" s="36">
+        <v>1</v>
+      </c>
+      <c r="K13" s="37">
         <v>1</v>
       </c>
     </row>
@@ -5266,28 +6744,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38">
-        <v>2</v>
-      </c>
-      <c r="E14" s="38">
+      <c r="D14" s="36">
+        <v>2</v>
+      </c>
+      <c r="E14" s="36">
         <v>5</v>
       </c>
-      <c r="F14" s="38">
-        <v>2</v>
-      </c>
-      <c r="G14" s="41">
+      <c r="F14" s="36">
+        <v>2</v>
+      </c>
+      <c r="G14" s="39">
         <v>7</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="36">
         <v>3</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="37">
         <v>4</v>
       </c>
-      <c r="J14" s="38">
-        <v>2</v>
-      </c>
-      <c r="K14" s="39">
+      <c r="J14" s="36">
+        <v>2</v>
+      </c>
+      <c r="K14" s="37">
         <v>5</v>
       </c>
     </row>
@@ -5299,28 +6777,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="38">
-        <v>1</v>
-      </c>
-      <c r="E15" s="38">
-        <v>1</v>
-      </c>
-      <c r="F15" s="38">
-        <v>1</v>
-      </c>
-      <c r="G15" s="38">
-        <v>1</v>
-      </c>
-      <c r="H15" s="38">
-        <v>1</v>
-      </c>
-      <c r="I15" s="38">
-        <v>1</v>
-      </c>
-      <c r="J15" s="38">
-        <v>1</v>
-      </c>
-      <c r="K15" s="38">
+      <c r="D15" s="36">
+        <v>1</v>
+      </c>
+      <c r="E15" s="36">
+        <v>1</v>
+      </c>
+      <c r="F15" s="36">
+        <v>1</v>
+      </c>
+      <c r="G15" s="36">
+        <v>1</v>
+      </c>
+      <c r="H15" s="36">
+        <v>1</v>
+      </c>
+      <c r="I15" s="36">
+        <v>1</v>
+      </c>
+      <c r="J15" s="36">
+        <v>1</v>
+      </c>
+      <c r="K15" s="36">
         <v>1</v>
       </c>
     </row>
@@ -5330,28 +6808,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>6</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="36">
         <v>5</v>
       </c>
-      <c r="F16" s="38">
-        <v>2</v>
-      </c>
-      <c r="G16" s="38">
+      <c r="F16" s="36">
+        <v>2</v>
+      </c>
+      <c r="G16" s="36">
         <v>5</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="36">
         <v>4</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="36">
         <v>8</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="36">
         <v>4</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="36">
         <v>4</v>
       </c>
     </row>
@@ -5365,28 +6843,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
+      <c r="D17" s="36">
+        <v>1</v>
+      </c>
+      <c r="E17" s="36">
+        <v>1</v>
+      </c>
+      <c r="F17" s="36">
+        <v>1</v>
+      </c>
+      <c r="G17" s="36">
+        <v>1</v>
+      </c>
+      <c r="H17" s="36">
+        <v>1</v>
+      </c>
+      <c r="I17" s="36">
+        <v>1</v>
+      </c>
+      <c r="J17" s="36">
+        <v>1</v>
+      </c>
+      <c r="K17" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
+      <c r="D18" s="36">
+        <v>10</v>
+      </c>
+      <c r="E18" s="36">
+        <v>10</v>
+      </c>
+      <c r="F18" s="36">
+        <v>4</v>
+      </c>
+      <c r="G18" s="36">
+        <v>10</v>
+      </c>
+      <c r="H18" s="36">
+        <v>8</v>
+      </c>
+      <c r="I18" s="36">
+        <v>9</v>
+      </c>
+      <c r="J18" s="36">
+        <v>2</v>
+      </c>
+      <c r="K18" s="36">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -5396,14 +6906,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="D19" s="36">
+        <v>1</v>
+      </c>
+      <c r="E19" s="36">
+        <v>1</v>
+      </c>
+      <c r="F19" s="36">
+        <v>1</v>
+      </c>
+      <c r="G19" s="36">
+        <v>1</v>
+      </c>
+      <c r="H19" s="36">
+        <v>1</v>
+      </c>
+      <c r="I19" s="36">
+        <v>1</v>
+      </c>
+      <c r="J19" s="36">
+        <v>1</v>
+      </c>
+      <c r="K19" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -5411,14 +6937,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
+      <c r="D20" s="36">
+        <v>2</v>
+      </c>
+      <c r="E20" s="36">
+        <v>5</v>
+      </c>
+      <c r="F20" s="36">
+        <v>2</v>
+      </c>
+      <c r="G20" s="36">
+        <v>9</v>
+      </c>
+      <c r="H20" s="36">
+        <v>8</v>
+      </c>
+      <c r="I20" s="36">
+        <v>10</v>
+      </c>
+      <c r="J20" s="36">
+        <v>10</v>
+      </c>
+      <c r="K20" s="36">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -5624,19 +7166,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5684,28 +7226,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
-        <v>1</v>
-      </c>
-      <c r="E5" s="38">
-        <v>1</v>
-      </c>
-      <c r="F5" s="38">
-        <v>1</v>
-      </c>
-      <c r="G5" s="39">
-        <v>1</v>
-      </c>
-      <c r="H5" s="39">
-        <v>1</v>
-      </c>
-      <c r="I5" s="39">
-        <v>1</v>
-      </c>
-      <c r="J5" s="38">
-        <v>1</v>
-      </c>
-      <c r="K5" s="38">
+      <c r="D5" s="36">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36">
+        <v>1</v>
+      </c>
+      <c r="F5" s="36">
+        <v>1</v>
+      </c>
+      <c r="G5" s="37">
+        <v>1</v>
+      </c>
+      <c r="H5" s="37">
+        <v>1</v>
+      </c>
+      <c r="I5" s="37">
+        <v>1</v>
+      </c>
+      <c r="J5" s="36">
+        <v>1</v>
+      </c>
+      <c r="K5" s="36">
         <v>1</v>
       </c>
     </row>
@@ -5714,28 +7256,28 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="36">
         <v>3.9</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="36">
         <v>3</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="37">
         <v>5.4</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="37">
         <v>4.8</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="37">
         <v>3.8</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="36">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="37">
         <v>4.5</v>
       </c>
     </row>
@@ -5747,28 +7289,28 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="38">
-        <v>1</v>
-      </c>
-      <c r="E7" s="38">
-        <v>1</v>
-      </c>
-      <c r="F7" s="38">
-        <v>1</v>
-      </c>
-      <c r="G7" s="39">
-        <v>1</v>
-      </c>
-      <c r="H7" s="39">
-        <v>1</v>
-      </c>
-      <c r="I7" s="39">
-        <v>1</v>
-      </c>
-      <c r="J7" s="38">
-        <v>1</v>
-      </c>
-      <c r="K7" s="38">
+      <c r="D7" s="36">
+        <v>1</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1</v>
+      </c>
+      <c r="F7" s="36">
+        <v>1</v>
+      </c>
+      <c r="G7" s="37">
+        <v>1</v>
+      </c>
+      <c r="H7" s="37">
+        <v>1</v>
+      </c>
+      <c r="I7" s="37">
+        <v>1</v>
+      </c>
+      <c r="J7" s="36">
+        <v>1</v>
+      </c>
+      <c r="K7" s="36">
         <v>1</v>
       </c>
     </row>
@@ -5778,28 +7320,28 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>3.6</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="36">
         <v>4.5</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="37">
         <v>3.8</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="36">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="37">
         <v>3.1</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="36">
         <v>3.8</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="37">
         <v>4.2</v>
       </c>
     </row>
@@ -5813,28 +7355,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="38">
-        <v>1</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1</v>
-      </c>
-      <c r="F9" s="38">
-        <v>1</v>
-      </c>
-      <c r="G9" s="39">
-        <v>1</v>
-      </c>
-      <c r="H9" s="39">
-        <v>1</v>
-      </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
-        <v>1</v>
-      </c>
-      <c r="K9" s="39">
+      <c r="D9" s="36">
+        <v>1</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1</v>
+      </c>
+      <c r="F9" s="36">
+        <v>1</v>
+      </c>
+      <c r="G9" s="37">
+        <v>1</v>
+      </c>
+      <c r="H9" s="37">
+        <v>1</v>
+      </c>
+      <c r="I9" s="36">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36">
+        <v>1</v>
+      </c>
+      <c r="K9" s="37">
         <v>1</v>
       </c>
     </row>
@@ -5843,28 +7385,28 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>4.3</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>3.6</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="36">
         <v>3.4</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="37">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="37">
         <v>5</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="36">
         <v>6.4</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="36">
         <v>3.2</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="37">
         <v>3.8</v>
       </c>
     </row>
@@ -5876,28 +7418,28 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="39">
-        <v>1</v>
-      </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="38">
-        <v>1</v>
-      </c>
-      <c r="G11" s="39">
-        <v>1</v>
-      </c>
-      <c r="H11" s="39">
-        <v>1</v>
-      </c>
-      <c r="I11" s="38">
-        <v>1</v>
-      </c>
-      <c r="J11" s="38">
-        <v>1</v>
-      </c>
-      <c r="K11" s="39">
+      <c r="D11" s="37">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36">
+        <v>1</v>
+      </c>
+      <c r="F11" s="36">
+        <v>1</v>
+      </c>
+      <c r="G11" s="37">
+        <v>1</v>
+      </c>
+      <c r="H11" s="37">
+        <v>1</v>
+      </c>
+      <c r="I11" s="36">
+        <v>1</v>
+      </c>
+      <c r="J11" s="36">
+        <v>1</v>
+      </c>
+      <c r="K11" s="37">
         <v>1</v>
       </c>
     </row>
@@ -5907,28 +7449,28 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>3.6</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="36">
         <v>3.8</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="36">
         <v>3.6</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="37">
         <v>3.2</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="37">
         <v>5.3</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="36">
         <v>5.9</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="36">
         <v>3.5</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="37">
         <v>4.2</v>
       </c>
     </row>
@@ -5942,28 +7484,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="39">
-        <v>1</v>
-      </c>
-      <c r="E13" s="38">
-        <v>1</v>
-      </c>
-      <c r="F13" s="38">
-        <v>1</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1</v>
-      </c>
-      <c r="H13" s="38">
-        <v>1</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1</v>
-      </c>
-      <c r="J13" s="38">
-        <v>1</v>
-      </c>
-      <c r="K13" s="39">
+      <c r="D13" s="37">
+        <v>1</v>
+      </c>
+      <c r="E13" s="36">
+        <v>1</v>
+      </c>
+      <c r="F13" s="36">
+        <v>1</v>
+      </c>
+      <c r="G13" s="37">
+        <v>1</v>
+      </c>
+      <c r="H13" s="36">
+        <v>1</v>
+      </c>
+      <c r="I13" s="37">
+        <v>1</v>
+      </c>
+      <c r="J13" s="36">
+        <v>1</v>
+      </c>
+      <c r="K13" s="37">
         <v>1</v>
       </c>
     </row>
@@ -5972,28 +7514,28 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>3.2</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="36">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="36">
         <v>3.4</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="39">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="36">
         <v>3.9</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="37">
         <v>7.6</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="36">
         <v>3.5</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="37">
         <v>5.2</v>
       </c>
     </row>
@@ -6005,28 +7547,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="38">
-        <v>1</v>
-      </c>
-      <c r="E15" s="38">
-        <v>1</v>
-      </c>
-      <c r="F15" s="38">
-        <v>1</v>
-      </c>
-      <c r="G15" s="38">
-        <v>1</v>
-      </c>
-      <c r="H15" s="38">
-        <v>1</v>
-      </c>
-      <c r="I15" s="38">
-        <v>1</v>
-      </c>
-      <c r="J15" s="38">
-        <v>1</v>
-      </c>
-      <c r="K15" s="38">
+      <c r="D15" s="36">
+        <v>1</v>
+      </c>
+      <c r="E15" s="36">
+        <v>1</v>
+      </c>
+      <c r="F15" s="36">
+        <v>1</v>
+      </c>
+      <c r="G15" s="36">
+        <v>1</v>
+      </c>
+      <c r="H15" s="36">
+        <v>1</v>
+      </c>
+      <c r="I15" s="36">
+        <v>1</v>
+      </c>
+      <c r="J15" s="36">
+        <v>1</v>
+      </c>
+      <c r="K15" s="36">
         <v>1</v>
       </c>
     </row>
@@ -6036,28 +7578,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>4.3</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="36">
         <v>4.8</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="36">
         <v>3.6</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="36">
         <v>5.3</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="36">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="36">
         <v>6.5</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="36">
         <v>3.6</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="36">
         <v>3.9</v>
       </c>
     </row>
@@ -6071,28 +7613,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
+      <c r="D17" s="36">
+        <v>1</v>
+      </c>
+      <c r="E17" s="36">
+        <v>1</v>
+      </c>
+      <c r="F17" s="36">
+        <v>1</v>
+      </c>
+      <c r="G17" s="36">
+        <v>1</v>
+      </c>
+      <c r="H17" s="36">
+        <v>1</v>
+      </c>
+      <c r="I17" s="36">
+        <v>1</v>
+      </c>
+      <c r="J17" s="36">
+        <v>1</v>
+      </c>
+      <c r="K17" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
+      <c r="D18" s="36">
+        <v>4.5</v>
+      </c>
+      <c r="E18" s="36">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F18" s="36">
+        <v>2.9</v>
+      </c>
+      <c r="G18" s="36">
+        <v>7.1</v>
+      </c>
+      <c r="H18" s="36">
+        <v>6.1</v>
+      </c>
+      <c r="I18" s="36">
+        <v>5.4</v>
+      </c>
+      <c r="J18" s="36">
+        <v>5.4</v>
+      </c>
+      <c r="K18" s="36">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -6102,14 +7676,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="D19" s="36">
+        <v>1</v>
+      </c>
+      <c r="E19" s="36">
+        <v>1</v>
+      </c>
+      <c r="F19" s="36">
+        <v>1</v>
+      </c>
+      <c r="G19" s="36">
+        <v>1</v>
+      </c>
+      <c r="H19" s="36">
+        <v>1</v>
+      </c>
+      <c r="I19" s="36">
+        <v>1</v>
+      </c>
+      <c r="J19" s="36">
+        <v>1</v>
+      </c>
+      <c r="K19" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -6117,14 +7707,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
+      <c r="D20" s="36">
+        <v>2.8</v>
+      </c>
+      <c r="E20" s="36">
+        <v>4.8</v>
+      </c>
+      <c r="F20" s="36">
+        <v>3.3</v>
+      </c>
+      <c r="G20" s="36">
+        <v>6.7</v>
+      </c>
+      <c r="H20" s="36">
+        <v>6.2</v>
+      </c>
+      <c r="I20" s="36">
+        <v>5.5</v>
+      </c>
+      <c r="J20" s="36">
+        <v>5.6</v>
+      </c>
+      <c r="K20" s="36">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -6320,7 +7926,7 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -6332,56 +7938,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="36" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="78" t="s">
+      <c r="L3" s="77"/>
+      <c r="M3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="79"/>
-      <c r="O3" s="78" t="s">
+      <c r="N3" s="77"/>
+      <c r="O3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="80"/>
+      <c r="P3" s="78"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -6390,46 +7996,46 @@
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6440,88 +8046,88 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="45">
-        <v>1</v>
-      </c>
-      <c r="D5" s="74">
+      <c r="C5" s="43">
+        <v>1</v>
+      </c>
+      <c r="D5" s="72">
         <v>6.25E-2</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="59">
         <v>0.5</v>
       </c>
-      <c r="F5" s="62">
-        <v>1</v>
-      </c>
-      <c r="G5" s="62">
-        <v>1</v>
-      </c>
-      <c r="H5" s="62">
+      <c r="F5" s="60">
+        <v>1</v>
+      </c>
+      <c r="G5" s="60">
+        <v>1</v>
+      </c>
+      <c r="H5" s="60">
         <v>3</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="60">
         <v>128</v>
       </c>
-      <c r="J5" s="62">
-        <v>2</v>
-      </c>
-      <c r="K5" s="62">
+      <c r="J5" s="60">
+        <v>2</v>
+      </c>
+      <c r="K5" s="60">
         <v>3</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="60">
         <v>4</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="55">
         <v>3.125E-2</v>
       </c>
-      <c r="N5" s="60">
+      <c r="N5" s="58">
         <v>0.05</v>
       </c>
-      <c r="O5" s="62">
-        <v>2</v>
-      </c>
-      <c r="P5" s="63">
+      <c r="O5" s="60">
+        <v>2</v>
+      </c>
+      <c r="P5" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="63">
         <v>4</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="F6" s="53">
-        <v>2</v>
-      </c>
-      <c r="G6" s="54">
+      <c r="F6" s="51">
+        <v>2</v>
+      </c>
+      <c r="G6" s="52">
         <v>0.25</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="51">
         <v>3</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="52">
         <v>0.25</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="36">
         <v>2.6</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="M6" s="56">
+      <c r="M6" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="N6" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O6" s="38">
+      <c r="O6" s="36">
         <v>0.5</v>
       </c>
       <c r="P6" s="26">
@@ -6533,92 +8139,92 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="46">
-        <v>1</v>
-      </c>
-      <c r="D7" s="65">
+      <c r="C7" s="44">
+        <v>1</v>
+      </c>
+      <c r="D7" s="63">
         <v>8</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="36">
         <v>0.5</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="36">
         <v>0.5</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="51">
         <v>8</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="51">
         <v>3</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="52">
         <v>0.25</v>
       </c>
-      <c r="J7" s="56">
+      <c r="J7" s="54">
         <v>3.125E-2</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="36">
         <v>0.4</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="51">
         <v>16</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="N7" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O7" s="56">
+      <c r="O7" s="54">
         <v>7.8125E-3</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="66">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="65">
-        <v>2</v>
-      </c>
-      <c r="E8" s="56">
+      <c r="D8" s="63">
+        <v>2</v>
+      </c>
+      <c r="E8" s="54">
         <v>1.953125E-3</v>
       </c>
-      <c r="F8" s="53">
-        <v>2</v>
-      </c>
-      <c r="G8" s="53">
+      <c r="F8" s="51">
+        <v>2</v>
+      </c>
+      <c r="G8" s="51">
         <v>4</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="51">
         <v>2</v>
       </c>
       <c r="I8" s="15">
         <v>0.125</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="54">
         <v>3.125E-2</v>
       </c>
-      <c r="K8" s="53">
-        <v>2</v>
-      </c>
-      <c r="L8" s="53">
+      <c r="K8" s="51">
+        <v>2</v>
+      </c>
+      <c r="L8" s="51">
         <v>32</v>
       </c>
-      <c r="M8" s="56">
+      <c r="M8" s="54">
         <v>1.5625E-2</v>
       </c>
       <c r="N8" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="36">
         <v>0.5</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="66">
         <v>0.25</v>
       </c>
     </row>
@@ -6629,91 +8235,91 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="45">
-        <v>1</v>
-      </c>
-      <c r="D9" s="64">
+      <c r="C9" s="43">
+        <v>1</v>
+      </c>
+      <c r="D9" s="62">
         <v>6.25E-2</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="36">
         <v>0.5</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="51">
         <v>4</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="H9" s="53">
-        <v>1</v>
-      </c>
-      <c r="I9" s="53">
+      <c r="H9" s="51">
+        <v>1</v>
+      </c>
+      <c r="I9" s="51">
         <v>8</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="54">
         <v>3.125E-2</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="36">
         <v>2.4</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="51">
         <v>1024</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="54">
         <v>7.8125E-3</v>
       </c>
       <c r="N9" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="P9" s="67">
+      <c r="P9" s="65">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="62">
         <v>6.25E-2</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="F10" s="53">
-        <v>2</v>
-      </c>
-      <c r="G10" s="53">
-        <v>2</v>
-      </c>
-      <c r="H10" s="38">
+      <c r="F10" s="51">
+        <v>2</v>
+      </c>
+      <c r="G10" s="51">
+        <v>2</v>
+      </c>
+      <c r="H10" s="36">
         <v>0.6</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="36">
         <v>2.8</v>
       </c>
-      <c r="L10" s="53">
-        <v>1</v>
-      </c>
-      <c r="M10" s="56">
+      <c r="L10" s="51">
+        <v>1</v>
+      </c>
+      <c r="M10" s="54">
         <v>3.125E-2</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="36">
         <v>0.1</v>
       </c>
-      <c r="O10" s="53">
+      <c r="O10" s="51">
         <v>8</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="66">
         <v>0.25</v>
       </c>
     </row>
@@ -6722,59 +8328,59 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="46">
-        <v>1</v>
-      </c>
-      <c r="D11" s="65">
-        <v>1</v>
-      </c>
-      <c r="E11" s="38">
+      <c r="C11" s="44">
+        <v>1</v>
+      </c>
+      <c r="D11" s="63">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36">
         <v>0.5</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="G11" s="15">
         <v>0.125</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="36">
         <v>0.6</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="51">
         <v>32</v>
       </c>
-      <c r="J11" s="53">
-        <v>2</v>
-      </c>
-      <c r="K11" s="38">
+      <c r="J11" s="51">
+        <v>2</v>
+      </c>
+      <c r="K11" s="36">
         <v>2.6</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="51">
         <v>256</v>
       </c>
-      <c r="M11" s="55">
+      <c r="M11" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="N11" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O11" s="56">
+      <c r="O11" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="P11" s="58">
+      <c r="P11" s="56">
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="63">
         <v>4</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="53">
         <v>6.25E-2</v>
       </c>
       <c r="F12" s="15">
@@ -6783,31 +8389,31 @@
       <c r="G12" s="15">
         <v>0.125</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="36">
         <v>0.8</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="K12" s="53">
-        <v>1</v>
-      </c>
-      <c r="L12" s="53">
+      <c r="K12" s="51">
+        <v>1</v>
+      </c>
+      <c r="L12" s="51">
         <v>256</v>
       </c>
-      <c r="M12" s="56">
+      <c r="M12" s="54">
         <v>3.90625E-3</v>
       </c>
       <c r="N12" s="15">
         <v>0.01</v>
       </c>
-      <c r="O12" s="55">
+      <c r="O12" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="P12" s="67">
+      <c r="P12" s="65">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -6818,34 +8424,34 @@
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="45">
-        <v>1</v>
-      </c>
-      <c r="D13" s="65">
-        <v>2</v>
-      </c>
-      <c r="E13" s="53">
-        <v>1</v>
-      </c>
-      <c r="F13" s="55">
+      <c r="C13" s="43">
+        <v>1</v>
+      </c>
+      <c r="D13" s="63">
+        <v>2</v>
+      </c>
+      <c r="E13" s="51">
+        <v>1</v>
+      </c>
+      <c r="F13" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="52">
         <v>0.25</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="36">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="51">
         <v>4</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="54">
         <v>9.765625E-4</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="36">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L13" s="53">
+      <c r="L13" s="51">
         <v>4</v>
       </c>
       <c r="M13" s="15">
@@ -6854,52 +8460,52 @@
       <c r="N13" s="15">
         <v>1E-3</v>
       </c>
-      <c r="O13" s="56">
+      <c r="O13" s="54">
         <v>3.125E-2</v>
       </c>
-      <c r="P13" s="69">
+      <c r="P13" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="63">
         <v>8</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="54">
         <v>1.5625E-2</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="51">
         <v>4</v>
       </c>
       <c r="G14" s="15">
         <v>0.125</v>
       </c>
-      <c r="H14" s="53">
-        <v>2</v>
-      </c>
-      <c r="I14" s="56">
+      <c r="H14" s="51">
+        <v>2</v>
+      </c>
+      <c r="I14" s="54">
         <v>1.953125E-3</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="36">
         <v>2.6</v>
       </c>
-      <c r="L14" s="56">
+      <c r="L14" s="54">
         <v>1.5625E-2</v>
       </c>
-      <c r="M14" s="55">
+      <c r="M14" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="N14" s="54">
+      <c r="N14" s="52">
         <v>0.05</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="51">
         <v>2</v>
       </c>
       <c r="P14" s="26">
@@ -6911,92 +8517,92 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="46">
-        <v>1</v>
-      </c>
-      <c r="D15" s="65">
+      <c r="C15" s="44">
+        <v>1</v>
+      </c>
+      <c r="D15" s="63">
         <v>8</v>
       </c>
-      <c r="E15" s="53">
-        <v>1</v>
-      </c>
-      <c r="F15" s="54">
+      <c r="E15" s="51">
+        <v>1</v>
+      </c>
+      <c r="F15" s="52">
         <v>0.25</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="51">
         <v>8</v>
       </c>
-      <c r="H15" s="53">
-        <v>1</v>
-      </c>
-      <c r="I15" s="53">
+      <c r="H15" s="51">
+        <v>1</v>
+      </c>
+      <c r="I15" s="51">
         <v>64</v>
       </c>
-      <c r="J15" s="53">
+      <c r="J15" s="51">
         <v>512</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="36">
         <v>0.8</v>
       </c>
-      <c r="L15" s="56">
+      <c r="L15" s="54">
         <v>7.8125E-3</v>
       </c>
-      <c r="M15" s="53">
-        <v>1</v>
-      </c>
-      <c r="N15" s="54">
+      <c r="M15" s="51">
+        <v>1</v>
+      </c>
+      <c r="N15" s="52">
         <v>0.05</v>
       </c>
-      <c r="O15" s="56">
+      <c r="O15" s="54">
         <v>3.90625E-3</v>
       </c>
-      <c r="P15" s="67">
+      <c r="P15" s="65">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="62">
         <v>6.25E-2</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="51">
         <v>128</v>
       </c>
-      <c r="F16" s="53">
-        <v>2</v>
-      </c>
-      <c r="G16" s="38">
+      <c r="F16" s="51">
+        <v>2</v>
+      </c>
+      <c r="G16" s="36">
         <v>0.5</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="36">
         <v>0.6</v>
       </c>
-      <c r="I16" s="53">
-        <v>1</v>
-      </c>
-      <c r="J16" s="56">
+      <c r="I16" s="51">
+        <v>1</v>
+      </c>
+      <c r="J16" s="54">
         <v>9.765625E-4</v>
       </c>
-      <c r="K16" s="53">
-        <v>2</v>
-      </c>
-      <c r="L16" s="53">
+      <c r="K16" s="51">
+        <v>2</v>
+      </c>
+      <c r="L16" s="51">
         <v>256</v>
       </c>
-      <c r="M16" s="56">
+      <c r="M16" s="54">
         <v>7.8125E-3</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="36">
         <v>0.1</v>
       </c>
-      <c r="O16" s="54">
+      <c r="O16" s="52">
         <v>0.25</v>
       </c>
-      <c r="P16" s="69">
+      <c r="P16" s="67">
         <v>32</v>
       </c>
     </row>
@@ -7007,83 +8613,187 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="46">
-        <v>1</v>
-      </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="69"/>
+      <c r="C17" s="44">
+        <v>1</v>
+      </c>
+      <c r="D17" s="62">
+        <v>64</v>
+      </c>
+      <c r="E17" s="51">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="51">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="H17" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="51">
+        <v>4</v>
+      </c>
+      <c r="J17" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="K17" s="51">
+        <v>2.8</v>
+      </c>
+      <c r="L17" s="51">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="M17" s="54">
+        <v>2</v>
+      </c>
+      <c r="N17" s="36">
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="O17" s="51">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="P17" s="67">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="26"/>
+      <c r="D18" s="62">
+        <v>1</v>
+      </c>
+      <c r="E18" s="54">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F18" s="51">
+        <v>4</v>
+      </c>
+      <c r="G18" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="H18" s="51">
+        <v>3</v>
+      </c>
+      <c r="I18" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="54">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K18" s="51">
+        <v>3</v>
+      </c>
+      <c r="L18" s="51">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="M18" s="54">
+        <v>1</v>
+      </c>
+      <c r="N18" s="36">
+        <v>-8</v>
+      </c>
+      <c r="O18" s="51">
+        <v>2</v>
+      </c>
+      <c r="P18" s="26">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="46">
-        <v>1</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="68"/>
+      <c r="C19" s="44">
+        <v>1</v>
+      </c>
+      <c r="D19" s="62">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E19" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="51">
+        <v>16</v>
+      </c>
+      <c r="G19" s="51">
+        <v>256</v>
+      </c>
+      <c r="H19" s="36">
+        <v>2.4</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="K19" s="36">
+        <v>2</v>
+      </c>
+      <c r="L19" s="51">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M19" s="54">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N19" s="15">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O19" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="P19" s="66">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="75"/>
+      <c r="D20" s="64">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E20" s="57">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F20" s="71">
+        <v>4</v>
+      </c>
+      <c r="G20" s="69">
+        <v>128</v>
+      </c>
+      <c r="H20" s="70">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I20" s="57">
+        <v>3.125E-2</v>
+      </c>
+      <c r="J20" s="57">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K20" s="70">
+        <v>0.4</v>
+      </c>
+      <c r="L20" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="57">
+        <v>0.125</v>
+      </c>
+      <c r="N20" s="19">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="68">
+        <v>4</v>
+      </c>
+      <c r="P20" s="73">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -7353,69 +9063,76 @@
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="78" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="78" t="s">
+      <c r="G3" s="77"/>
+      <c r="H3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="79"/>
-      <c r="J3" s="78" t="s">
+      <c r="I3" s="77"/>
+      <c r="J3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="78" t="s">
+      <c r="K3" s="77"/>
+      <c r="L3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="79"/>
-      <c r="N3" s="78" t="s">
+      <c r="M3" s="77"/>
+      <c r="N3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="79"/>
-      <c r="P3" s="78" t="s">
+      <c r="O3" s="77"/>
+      <c r="P3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="78" t="s">
+      <c r="Q3" s="77"/>
+      <c r="R3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="80"/>
+      <c r="S3" s="78"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -7427,52 +9144,52 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="P4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="S4" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7486,52 +9203,52 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="50">
         <v>1.953125E-3</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="49">
         <v>1024.001</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="50">
         <v>1.5625E-2</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="49">
         <v>1024.001</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="50">
         <v>7.8125E-3</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="49">
         <v>1024.001</v>
       </c>
       <c r="J5" s="12">
         <v>1.953125E-3</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="49">
         <v>1024.001</v>
       </c>
       <c r="L5" s="12">
         <v>1.953125E-3</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="49">
         <v>1024.001</v>
       </c>
       <c r="N5" s="12">
         <v>-0.125</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="49">
         <v>1024.001</v>
       </c>
-      <c r="P5" s="52">
+      <c r="P5" s="50">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="49">
         <v>1024.001</v>
       </c>
-      <c r="R5" s="52">
+      <c r="R5" s="50">
         <v>1.953125E-3</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="49">
         <v>1024.001</v>
       </c>
     </row>
@@ -7540,52 +9257,52 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="F6" s="53">
-        <v>1</v>
-      </c>
-      <c r="G6" s="53">
+      <c r="F6" s="51">
+        <v>1</v>
+      </c>
+      <c r="G6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="52">
         <v>0.25</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="51">
         <v>1024.001</v>
       </c>
       <c r="J6" s="15">
         <v>0.125</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="52">
         <v>0.25</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="51">
         <v>-8</v>
       </c>
-      <c r="O6" s="53">
+      <c r="O6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="P6" s="55">
+      <c r="P6" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q6" s="53">
+      <c r="Q6" s="51">
         <v>1024.001</v>
       </c>
-      <c r="R6" s="53">
-        <v>1</v>
-      </c>
-      <c r="S6" s="53">
+      <c r="R6" s="51">
+        <v>1</v>
+      </c>
+      <c r="S6" s="51">
         <v>1024.001</v>
       </c>
     </row>
@@ -7597,52 +9314,52 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="52">
         <v>0.25</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="L7" s="53">
-        <v>1</v>
-      </c>
-      <c r="M7" s="53">
+      <c r="L7" s="51">
+        <v>1</v>
+      </c>
+      <c r="M7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="N7" s="55">
+      <c r="N7" s="53">
         <v>-1.5625E-2</v>
       </c>
-      <c r="O7" s="53">
+      <c r="O7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="P7" s="55">
+      <c r="P7" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q7" s="53">
+      <c r="Q7" s="51">
         <v>1024.001</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7" s="52">
         <v>0.25</v>
       </c>
-      <c r="S7" s="53">
+      <c r="S7" s="51">
         <v>1024.001</v>
       </c>
     </row>
@@ -7652,52 +9369,52 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="52">
         <v>0.25</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="51">
         <v>64</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="36">
         <v>0.5</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="36">
         <v>0.5</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="51">
         <v>1024.001</v>
       </c>
       <c r="N8" s="15">
         <v>-0.125</v>
       </c>
-      <c r="O8" s="53">
+      <c r="O8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="P8" s="55">
+      <c r="P8" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q8" s="53">
+      <c r="Q8" s="51">
         <v>1024.001</v>
       </c>
-      <c r="R8" s="53">
-        <v>1</v>
-      </c>
-      <c r="S8" s="53">
+      <c r="R8" s="51">
+        <v>1</v>
+      </c>
+      <c r="S8" s="51">
         <v>1024.001</v>
       </c>
     </row>
@@ -7711,49 +9428,49 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="52">
         <v>0.99</v>
       </c>
       <c r="E9" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="36">
         <v>0.5</v>
       </c>
       <c r="G9" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="52">
         <v>0.99</v>
       </c>
       <c r="I9" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="52">
         <v>0.99</v>
       </c>
       <c r="K9" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="36">
         <v>0.3</v>
       </c>
       <c r="M9" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="36">
         <v>0.4</v>
       </c>
-      <c r="O9" s="53">
-        <v>1</v>
-      </c>
-      <c r="P9" s="54">
+      <c r="O9" s="51">
+        <v>1</v>
+      </c>
+      <c r="P9" s="52">
         <v>0.99</v>
       </c>
       <c r="Q9" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="R9" s="38">
+      <c r="R9" s="36">
         <v>0.1</v>
       </c>
       <c r="S9" s="15">
@@ -7765,49 +9482,49 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="52">
         <v>0.99</v>
       </c>
       <c r="E10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="36">
         <v>0.1</v>
       </c>
       <c r="G10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="52">
         <v>0.99</v>
       </c>
       <c r="I10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="36">
         <v>0.3</v>
       </c>
       <c r="K10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="52">
         <v>0.01</v>
       </c>
       <c r="M10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N10" s="54">
+      <c r="N10" s="52">
         <v>0.99</v>
       </c>
-      <c r="O10" s="53">
-        <v>1</v>
-      </c>
-      <c r="P10" s="54">
+      <c r="O10" s="51">
+        <v>1</v>
+      </c>
+      <c r="P10" s="52">
         <v>0.99</v>
       </c>
       <c r="Q10" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="R10" s="54">
+      <c r="R10" s="52">
         <v>0.01</v>
       </c>
       <c r="S10" s="15">
@@ -7822,49 +9539,49 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="52">
         <v>0.9</v>
       </c>
       <c r="E11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="52">
         <v>0.9</v>
       </c>
       <c r="G11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="52">
         <v>0.99</v>
       </c>
       <c r="I11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="52">
         <v>0.99</v>
       </c>
       <c r="K11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="52">
         <v>0.99</v>
       </c>
       <c r="M11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="36">
         <v>0.7</v>
       </c>
-      <c r="O11" s="53">
-        <v>1</v>
-      </c>
-      <c r="P11" s="54">
+      <c r="O11" s="51">
+        <v>1</v>
+      </c>
+      <c r="P11" s="52">
         <v>0.99</v>
       </c>
       <c r="Q11" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="R11" s="38">
+      <c r="R11" s="36">
         <v>0.1</v>
       </c>
       <c r="S11" s="15">
@@ -7877,49 +9594,49 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="52">
         <v>0.99</v>
       </c>
       <c r="E12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="52">
         <v>0.01</v>
       </c>
       <c r="G12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="52">
         <v>0.99</v>
       </c>
       <c r="I12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="36">
         <v>0.1</v>
       </c>
       <c r="K12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="52">
         <v>0.01</v>
       </c>
       <c r="M12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="36">
         <v>0.8</v>
       </c>
-      <c r="O12" s="53">
-        <v>1</v>
-      </c>
-      <c r="P12" s="54">
+      <c r="O12" s="51">
+        <v>1</v>
+      </c>
+      <c r="P12" s="52">
         <v>0.99</v>
       </c>
       <c r="Q12" s="15">
         <v>0.99099999999999999</v>
       </c>
-      <c r="R12" s="38">
+      <c r="R12" s="36">
         <v>0.1</v>
       </c>
       <c r="S12" s="15">
@@ -7936,19 +9653,19 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="51">
         <v>4.0009765625</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="53">
         <v>1.5625E-2</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="51">
         <v>128.0009765625</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="53">
         <v>1.953125E-3</v>
       </c>
       <c r="I13" s="15">
@@ -7957,28 +9674,28 @@
       <c r="J13" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="51">
         <v>1024.0009765625</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="36">
         <v>0.5</v>
       </c>
       <c r="M13" s="15">
         <v>1.0009765625</v>
       </c>
-      <c r="N13" s="55">
+      <c r="N13" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="O13" s="55">
+      <c r="O13" s="53">
         <v>8.7890625E-3</v>
       </c>
-      <c r="P13" s="55">
+      <c r="P13" s="53">
         <v>1.953125E-3</v>
       </c>
-      <c r="Q13" s="55">
+      <c r="Q13" s="53">
         <v>1.66015625E-2</v>
       </c>
-      <c r="R13" s="55">
+      <c r="R13" s="53">
         <v>3.90625E-3</v>
       </c>
       <c r="S13" s="15">
@@ -7990,49 +9707,49 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="51">
         <v>32.0009765625</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="53">
         <v>7.8125E-3</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="53">
         <v>8.7890625E-3</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="53">
         <v>3.125E-2</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="51">
         <v>512.0009765625</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="51">
         <v>16.0009765625</v>
       </c>
       <c r="L14" s="15">
         <v>0.125</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="51">
         <v>512.0009765625</v>
       </c>
-      <c r="N14" s="55">
+      <c r="N14" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="51">
         <v>1.0009765625</v>
       </c>
-      <c r="P14" s="55">
+      <c r="P14" s="53">
         <v>9.765625E-4</v>
       </c>
-      <c r="Q14" s="55">
+      <c r="Q14" s="53">
         <v>8.7890625E-3</v>
       </c>
-      <c r="R14" s="55">
+      <c r="R14" s="53">
         <v>1.5625E-2</v>
       </c>
       <c r="S14" s="15">
@@ -8047,49 +9764,49 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="51">
         <v>2</v>
       </c>
       <c r="E15" s="15">
         <v>0.1259765625</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="51">
         <v>64</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="51">
         <v>32.0009765625</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="51">
         <v>256</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="36">
         <v>0.5009765625</v>
       </c>
-      <c r="J15" s="53">
+      <c r="J15" s="51">
         <v>16</v>
       </c>
       <c r="K15" s="15">
         <v>0.2509765625</v>
       </c>
-      <c r="L15" s="53">
+      <c r="L15" s="51">
         <v>8</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="51">
         <v>64.0009765625</v>
       </c>
-      <c r="N15" s="53">
+      <c r="N15" s="51">
         <v>1</v>
       </c>
       <c r="O15" s="15">
         <v>0.5009765625</v>
       </c>
-      <c r="P15" s="53">
+      <c r="P15" s="51">
         <v>16</v>
       </c>
-      <c r="Q15" s="53">
+      <c r="Q15" s="51">
         <v>256.0009765625</v>
       </c>
-      <c r="R15" s="53">
+      <c r="R15" s="51">
         <v>512</v>
       </c>
       <c r="S15" s="15">
@@ -8102,40 +9819,40 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="51">
         <v>128</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="51">
         <v>64.0009765625</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="51">
         <v>1024</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="36">
         <v>0.5009765625</v>
       </c>
       <c r="H16" s="15">
         <v>9.765625E-4</v>
       </c>
-      <c r="I16" s="53">
+      <c r="I16" s="51">
         <v>2.0009765625</v>
       </c>
-      <c r="J16" s="53">
+      <c r="J16" s="51">
         <v>4</v>
       </c>
-      <c r="K16" s="53">
+      <c r="K16" s="51">
         <v>1.0009765625</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="53">
         <v>3.90625E-3</v>
       </c>
-      <c r="M16" s="53">
+      <c r="M16" s="51">
         <v>64.0009765625</v>
       </c>
-      <c r="N16" s="53">
-        <v>2</v>
-      </c>
-      <c r="O16" s="55">
+      <c r="N16" s="51">
+        <v>2</v>
+      </c>
+      <c r="O16" s="53">
         <v>2.9296875E-3</v>
       </c>
       <c r="P16" s="15">
@@ -8144,7 +9861,7 @@
       <c r="Q16" s="15">
         <v>0.1259765625</v>
       </c>
-      <c r="R16" s="53">
+      <c r="R16" s="51">
         <v>32</v>
       </c>
       <c r="S16" s="15">
@@ -8161,44 +9878,108 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
+      <c r="D17" s="51">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E17" s="51">
+        <v>16.0009765625</v>
+      </c>
+      <c r="F17" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="51">
+        <v>128.0009765625</v>
+      </c>
+      <c r="H17" s="53">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="I17" s="51">
+        <v>128.0009765625</v>
+      </c>
+      <c r="J17" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="K17" s="53">
+        <v>128.0009765625</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="36">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="N17" s="51">
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="O17" s="15">
+        <v>256.0009765625</v>
+      </c>
+      <c r="P17" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="51">
+        <v>128.0009765625</v>
+      </c>
+      <c r="R17" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="S17" s="51">
+        <v>512.0009765625</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="53"/>
+      <c r="D18" s="51">
+        <v>1</v>
+      </c>
+      <c r="E18" s="51">
+        <v>256.0009765625</v>
+      </c>
+      <c r="F18" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="36">
+        <v>64.0009765625</v>
+      </c>
+      <c r="H18" s="53">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I18" s="51">
+        <v>32.0009765625</v>
+      </c>
+      <c r="J18" s="51">
+        <v>0.125</v>
+      </c>
+      <c r="K18" s="51">
+        <v>512.0009765625</v>
+      </c>
+      <c r="L18" s="53">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M18" s="15">
+        <v>512.0009765625</v>
+      </c>
+      <c r="N18" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="15">
+        <v>512.0009765625</v>
+      </c>
+      <c r="P18" s="15">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="51">
+        <v>256.0009765625</v>
+      </c>
+      <c r="R18" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="S18" s="51">
+        <v>256.0009765625</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -8208,22 +9989,54 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="15"/>
+      <c r="D19" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="51">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="F19" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="51">
+        <v>16.0009765625</v>
+      </c>
+      <c r="H19" s="53">
+        <v>2</v>
+      </c>
+      <c r="I19" s="53">
+        <v>128.0009765625</v>
+      </c>
+      <c r="J19" s="53">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K19" s="51">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="L19" s="53">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M19" s="51">
+        <v>64.0009765625</v>
+      </c>
+      <c r="N19" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="O19" s="51">
+        <v>64.0009765625</v>
+      </c>
+      <c r="P19" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="Q19" s="51">
+        <v>256.0009765625</v>
+      </c>
+      <c r="R19" s="53">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="S19" s="15">
+        <v>32.0009765625</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -8231,22 +10044,54 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="15"/>
+      <c r="D20" s="53">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E20" s="51">
+        <v>64.0009765625</v>
+      </c>
+      <c r="F20" s="53">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G20" s="53">
+        <v>8.0009765625</v>
+      </c>
+      <c r="H20" s="53">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="I20" s="15">
+        <v>32.0009765625</v>
+      </c>
+      <c r="J20" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="K20" s="53">
+        <v>16.0009765625</v>
+      </c>
+      <c r="L20" s="53">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M20" s="51">
+        <v>512.0009765625</v>
+      </c>
+      <c r="N20" s="51">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="O20" s="51">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="P20" s="15">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="R20" s="53">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="S20" s="15">
+        <v>1024.0009765625</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
